--- a/testdata/Book1.xlsx
+++ b/testdata/Book1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-project\SeleniumPractice\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>First Name</t>
   </si>
@@ -138,7 +139,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,4 +632,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43695</v>
+      </c>
+      <c r="G1">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43696</v>
+      </c>
+      <c r="G2">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43697</v>
+      </c>
+      <c r="G3">
+        <v>2554</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F3">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(F1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(F1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>